--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
@@ -354,7 +354,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision on x recall on y</c:v>
+            <c:v>Precision vs recall</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -926,6 +926,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="true"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -936,6 +937,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -947,6 +950,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>
   <c:printSettings>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
@@ -354,7 +354,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision vs recall</c:v>
+            <c:v>Precision vs recall
+Precision on X-Axis
+Recall on y-Axis</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -952,7 +954,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:overlay val="true"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/BM25_scores_stopping_query_/BM25_scores_stopping_query_2_evaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Rank</t>
   </si>
@@ -26,274 +26,277 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>CACM-2434-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3078-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1046-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1014-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2863-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0492-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1183-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1867-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0597-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0435-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1305-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0847-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0397-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1623-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3202-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1625-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2439-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1397-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1168-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1345-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1214-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1424-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1498-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1215-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3189-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2645-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1439-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0531-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1117-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1591-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1861-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0971-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1486-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3204-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3201-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0728-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2356-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1391-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1348-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1523-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1549-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2912-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1334-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2519-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0942-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1403-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1926-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1464-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1564-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1427-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3127-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2456-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0616-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1161-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2937-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0282-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3199-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1705-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2943-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1468-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1542-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1503-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2383-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1469-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3080-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1854-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1145-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1676-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2317-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-0321-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3005-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2471-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2939-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2850-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1315-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1939-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1264-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2096-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1671-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2092-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3160-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1680-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2812-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1811-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-1741-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2217-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2483-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2002-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-3077-Stopping</t>
-  </si>
-  <si>
-    <t>CACM-2233-Stopping</t>
+    <t>CACM-2434</t>
+  </si>
+  <si>
+    <t>CACM-3078</t>
+  </si>
+  <si>
+    <t>CACM-1046</t>
+  </si>
+  <si>
+    <t>CACM-1014</t>
+  </si>
+  <si>
+    <t>CACM-2863</t>
+  </si>
+  <si>
+    <t>CACM-0492</t>
+  </si>
+  <si>
+    <t>CACM-1183</t>
+  </si>
+  <si>
+    <t>CACM-1867</t>
+  </si>
+  <si>
+    <t>CACM-0597</t>
+  </si>
+  <si>
+    <t>CACM-0435</t>
+  </si>
+  <si>
+    <t>CACM-1305</t>
+  </si>
+  <si>
+    <t>CACM-0847</t>
+  </si>
+  <si>
+    <t>CACM-0397</t>
+  </si>
+  <si>
+    <t>CACM-1623</t>
+  </si>
+  <si>
+    <t>CACM-3202</t>
+  </si>
+  <si>
+    <t>CACM-1625</t>
+  </si>
+  <si>
+    <t>CACM-2439</t>
+  </si>
+  <si>
+    <t>CACM-1397</t>
+  </si>
+  <si>
+    <t>CACM-1168</t>
+  </si>
+  <si>
+    <t>CACM-1345</t>
+  </si>
+  <si>
+    <t>CACM-1214</t>
+  </si>
+  <si>
+    <t>CACM-1424</t>
+  </si>
+  <si>
+    <t>CACM-1498</t>
+  </si>
+  <si>
+    <t>CACM-1215</t>
+  </si>
+  <si>
+    <t>CACM-3189</t>
+  </si>
+  <si>
+    <t>CACM-2645</t>
+  </si>
+  <si>
+    <t>CACM-1439</t>
+  </si>
+  <si>
+    <t>CACM-0531</t>
+  </si>
+  <si>
+    <t>CACM-1117</t>
+  </si>
+  <si>
+    <t>CACM-1591</t>
+  </si>
+  <si>
+    <t>CACM-1861</t>
+  </si>
+  <si>
+    <t>CACM-0971</t>
+  </si>
+  <si>
+    <t>CACM-1486</t>
+  </si>
+  <si>
+    <t>CACM-3204</t>
+  </si>
+  <si>
+    <t>CACM-3201</t>
+  </si>
+  <si>
+    <t>CACM-0728</t>
+  </si>
+  <si>
+    <t>CACM-2356</t>
+  </si>
+  <si>
+    <t>CACM-1391</t>
+  </si>
+  <si>
+    <t>CACM-1348</t>
+  </si>
+  <si>
+    <t>CACM-1523</t>
+  </si>
+  <si>
+    <t>CACM-1549</t>
+  </si>
+  <si>
+    <t>CACM-2912</t>
+  </si>
+  <si>
+    <t>CACM-1334</t>
+  </si>
+  <si>
+    <t>CACM-2519</t>
+  </si>
+  <si>
+    <t>CACM-0942</t>
+  </si>
+  <si>
+    <t>CACM-1403</t>
+  </si>
+  <si>
+    <t>CACM-1926</t>
+  </si>
+  <si>
+    <t>CACM-1464</t>
+  </si>
+  <si>
+    <t>CACM-1564</t>
+  </si>
+  <si>
+    <t>CACM-1427</t>
+  </si>
+  <si>
+    <t>CACM-3127</t>
+  </si>
+  <si>
+    <t>CACM-2456</t>
+  </si>
+  <si>
+    <t>CACM-0616</t>
+  </si>
+  <si>
+    <t>CACM-1161</t>
+  </si>
+  <si>
+    <t>CACM-2937</t>
+  </si>
+  <si>
+    <t>CACM-0282</t>
+  </si>
+  <si>
+    <t>CACM-3199</t>
+  </si>
+  <si>
+    <t>CACM-1705</t>
+  </si>
+  <si>
+    <t>CACM-2943</t>
+  </si>
+  <si>
+    <t>CACM-1468</t>
+  </si>
+  <si>
+    <t>CACM-1542</t>
+  </si>
+  <si>
+    <t>CACM-1503</t>
+  </si>
+  <si>
+    <t>CACM-2383</t>
+  </si>
+  <si>
+    <t>CACM-1469</t>
+  </si>
+  <si>
+    <t>CACM-3080</t>
+  </si>
+  <si>
+    <t>CACM-1854</t>
+  </si>
+  <si>
+    <t>CACM-1145</t>
+  </si>
+  <si>
+    <t>CACM-1676</t>
+  </si>
+  <si>
+    <t>CACM-2317</t>
+  </si>
+  <si>
+    <t>CACM-0321</t>
+  </si>
+  <si>
+    <t>CACM-3005</t>
+  </si>
+  <si>
+    <t>CACM-2471</t>
+  </si>
+  <si>
+    <t>CACM-2939</t>
+  </si>
+  <si>
+    <t>CACM-2850</t>
+  </si>
+  <si>
+    <t>CACM-1315</t>
+  </si>
+  <si>
+    <t>CACM-1939</t>
+  </si>
+  <si>
+    <t>CACM-1264</t>
+  </si>
+  <si>
+    <t>CACM-2096</t>
+  </si>
+  <si>
+    <t>CACM-1671</t>
+  </si>
+  <si>
+    <t>CACM-2092</t>
+  </si>
+  <si>
+    <t>CACM-3160</t>
+  </si>
+  <si>
+    <t>CACM-1680</t>
+  </si>
+  <si>
+    <t>CACM-2812</t>
+  </si>
+  <si>
+    <t>CACM-1811</t>
+  </si>
+  <si>
+    <t>CACM-1741</t>
+  </si>
+  <si>
+    <t>CACM-2217</t>
+  </si>
+  <si>
+    <t>CACM-2483</t>
+  </si>
+  <si>
+    <t>CACM-2002</t>
+  </si>
+  <si>
+    <t>CACM-3077</t>
+  </si>
+  <si>
+    <t>CACM-2233</t>
+  </si>
+  <si>
+    <t>MAP is -&gt;0.0858096626561041</t>
   </si>
 </sst>
 </file>
@@ -367,274 +370,274 @@
               <c:numCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,274 +648,274 @@
               <c:numCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.09375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08823529411764706</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.08108108108108109</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.07894736842105263</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.07317073170731707</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.07142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06976744186046512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06521739130434782</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06382978723404255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.061224489795918366</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.058823529411764705</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.057692307692307696</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05660377358490566</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05084745762711865</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04918032786885246</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.047619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0.046875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.046153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.045454545454545456</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04477611940298507</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.043478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04225352112676056</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.041666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0410958904109589</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04054054054054054</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.039473684210526314</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03896103896103896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.038461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0379746835443038</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.037037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0</c:v>
+                  <c:v>0.036585365853658534</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03614457831325301</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03488372093023256</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.034482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03409090909090909</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.033707865168539325</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0.03333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,16 +1006,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:CP92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.91015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1037,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -1051,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1065,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -1079,10 +1082,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1093,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1121,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1135,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1149,10 +1152,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1163,10 +1166,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1177,10 +1180,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1191,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1205,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1219,10 +1222,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1233,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1247,10 +1250,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>0.1875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1261,10 +1264,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1275,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1289,10 +1292,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1306,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1317,10 +1320,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1331,10 +1334,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1345,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1359,10 +1362,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1373,10 +1376,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1387,10 +1390,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1401,10 +1404,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1415,10 +1418,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1429,10 +1432,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1443,10 +1446,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -1457,10 +1460,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1471,10 +1474,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>0.09375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1485,10 +1488,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1499,10 +1502,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1513,10 +1516,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -1527,10 +1530,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -1541,10 +1544,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1555,10 +1558,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -1569,10 +1572,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -1583,10 +1586,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>0.075</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1597,10 +1600,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1611,10 +1614,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1625,10 +1628,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1639,10 +1642,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1653,10 +1656,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1667,10 +1670,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1681,10 +1684,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1695,10 +1698,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1709,10 +1712,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1723,10 +1726,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -1737,10 +1740,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -1751,10 +1754,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>0.057692307692307696</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1765,10 +1768,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1779,10 +1782,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -1793,10 +1796,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1807,10 +1810,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1821,10 +1824,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -1835,10 +1838,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -1849,10 +1852,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1863,10 +1866,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -1877,10 +1880,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -1891,10 +1894,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -1905,10 +1908,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1919,10 +1922,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>0.046875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -1933,10 +1936,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0</v>
+        <v>0.046153846153846156</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -1947,10 +1950,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -1961,10 +1964,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -1975,10 +1978,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -1989,10 +1992,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2003,10 +2006,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -2017,10 +2020,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -2031,10 +2034,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -2045,10 +2048,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -2059,10 +2062,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -2073,10 +2076,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -2087,10 +2090,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>0.039473684210526314</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -2101,10 +2104,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -2115,10 +2118,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0</v>
+        <v>0.038461538461538464</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -2129,10 +2132,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -2143,10 +2146,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0</v>
+        <v>0.0375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -2157,10 +2160,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -2171,10 +2174,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>0.036585365853658534</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -2185,10 +2188,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -2199,10 +2202,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -2213,10 +2216,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
@@ -2227,10 +2230,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -2241,10 +2244,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0</v>
+        <v>0.034482758620689655</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
@@ -2255,10 +2258,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -2269,10 +2272,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0</v>
+        <v>0.033707865168539325</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -2283,10 +2286,15 @@
         <v>93</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="CO92" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
